--- a/BOM/PierogiNixiePSU BOM.xlsx
+++ b/BOM/PierogiNixiePSU BOM.xlsx
@@ -124,10 +124,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>D1MPC0805R1M50FF-T5</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/thin-film-technology-corp/D1MPC0805R1M50FF-T5/16735494</t>
+    <t>RK73H2ATTD1504F</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RK73H2ATTD1504F/10234155</t>
   </si>
   <si>
     <t>R2</t>
@@ -734,18 +734,18 @@
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="4">
         <v>1.0</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -838,7 +838,7 @@
       </c>
       <c r="F17" s="8">
         <f>SUM(F2:F16)</f>
-        <v>18.08</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="18">
